--- a/biology/Botanique/Helianthus_annuus/Helianthus_annuus.xlsx
+++ b/biology/Botanique/Helianthus_annuus/Helianthus_annuus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournesol, également connu sous les noms hélianthe et soleil[1] (Helianthus annuus), est une grande plante annuelle, appartenant à la famille des Astéracées (Composées), dont les fleurs sont groupées en capitules de grandes dimensions. Le genre Helianthus comprend une cinquantaine d'espèces, toutes originaires d'Amérique du Nord, dont le topinambour (Helianthus tuberosus L.).
-Cette plante est très cultivée pour ses graines riches en huile alimentaire de bonne qualité (environ 40 % de leur composition[2]). Le tournesol est, avec le colza et l'olivier, l'une des trois sources principales d'huile alimentaire en Europe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournesol, également connu sous les noms hélianthe et soleil (Helianthus annuus), est une grande plante annuelle, appartenant à la famille des Astéracées (Composées), dont les fleurs sont groupées en capitules de grandes dimensions. Le genre Helianthus comprend une cinquantaine d'espèces, toutes originaires d'Amérique du Nord, dont le topinambour (Helianthus tuberosus L.).
+Cette plante est très cultivée pour ses graines riches en huile alimentaire de bonne qualité (environ 40 % de leur composition). Le tournesol est, avec le colza et l'olivier, l'une des trois sources principales d'huile alimentaire en Europe.
 Il existe de nombreux noms ou expressions vernaculaires pour le désigner : grand-soleil, soleil des jardins, soleil commun, graine à perroquet, hélianthe…
 </t>
         </is>
@@ -513,16 +525,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande plante annuelle, à tige très forte et peu ramifiée, pouvant atteindre jusqu'à 4 m de hauteur. Les feuilles simples, cordées (en forme de cœur), alternées, sauf à la base où elles sont parfois opposées, ont un pétiole plus ou moins long et sont rudes au toucher.
-Ce qu'on appelle communément « fleur de tournesol » n'est pas une fleur, mais un pseudanthe[3] : les capitules, réceptacles floraux charnus, qui ont tendance à se renverser après la floraison, peuvent atteindre 30 cm de largeur. Ils sont entourés d'un involucre à bractées ovales avec un sommet pointu.
-Les fleurs extérieures ligulées du capitule disposées sur un seul rang, sont généralement jaunes, et stériles sauf dans les variétés Turf ayant fait l'objet de mutations génétiques[3]. Les fleurs centrales en tube, hermaphrodites[3], sont jaune pâle ou rouge foncé chez les variétés anthocyanées. Les fruits sont des akènes surmontés par deux écailles en arête. La racine principale est pivotante.
+Ce qu'on appelle communément « fleur de tournesol » n'est pas une fleur, mais un pseudanthe : les capitules, réceptacles floraux charnus, qui ont tendance à se renverser après la floraison, peuvent atteindre 30 cm de largeur. Ils sont entourés d'un involucre à bractées ovales avec un sommet pointu.
+Les fleurs extérieures ligulées du capitule disposées sur un seul rang, sont généralement jaunes, et stériles sauf dans les variétés Turf ayant fait l'objet de mutations génétiques. Les fleurs centrales en tube, hermaphrodites, sont jaune pâle ou rouge foncé chez les variétés anthocyanées. Les fruits sont des akènes surmontés par deux écailles en arête. La racine principale est pivotante.
 La disposition des fleurs centrales (ou fleurons), ou des graines, sur le réceptacle dessine des spirales répondant aux règles de la phyllotaxie et tournant soit dans le sens des aiguilles d'une montre, soit en sens inverse. Les nombres de fleurons de chaque type de spirale sont constants et sont des nombres successifs de la suite de Fibonacci, par exemple 34/55 ou 55/89.
-Le tournesol est sujet à l'héliotropisme avant la floraison. Ce phénomène agit sur la croissance de la tige en fonction de l'éclairement. L'auxine, une phytohormone, provoque la croissance des cellules. Comme elle est détruite par les rayons solaires, cela provoque donc une élongation de la tige ou du pétiole du côté ombragé. Cela permet aux feuilles de garder tout au long de la journée une exposition optimale au soleil. Au début de la floraison, la fleur pointe définitivement vers le soleil levant, soit dans la direction est-sud-est en été aux latitudes moyennes[4].
+Le tournesol est sujet à l'héliotropisme avant la floraison. Ce phénomène agit sur la croissance de la tige en fonction de l'éclairement. L'auxine, une phytohormone, provoque la croissance des cellules. Comme elle est détruite par les rayons solaires, cela provoque donc une élongation de la tige ou du pétiole du côté ombragé. Cela permet aux feuilles de garder tout au long de la journée une exposition optimale au soleil. Au début de la floraison, la fleur pointe définitivement vers le soleil levant, soit dans la direction est-sud-est en été aux latitudes moyennes.
 Une fois fécondé, le capitule se penche vers le sol sous l'effet de son poids. Certaines variétés n'arrivent pas à bien assurer ce basculement, ce qui provoque une brûlure solaire des graines et une réduction du taux de germination.
-Pollinisation
-La pollinisation est aujourd'hui essentiellement assurée par différentes espèces d'abeilles, souvent par des abeilles domestiques via des ruches louées à des apiculteurs et installées dans les champs. Cette précaution est devenue nécessaire dans certains cas pour compenser la très forte régression des pollinisateurs dans la nature. L'INRA d'Avignon a montré en mettant dans des sachets fermés que respectivement l'autopollinisation ou la pollinisation par le vent donnaient un rendement grainier presque nul quand il est comparé à celui obtenu en présence d'abeilles[5]. Un système de vidéosurveillance a plus récemment permis de quantifier la fréquence des visites d'abeilles (domestiques ou sauvages) ou d'autre espèces telles que papillons, bourdons, etc. ) et des chercheurs essayent de comprendre pourquoi certaines variétés femelles sont moins visitées que les lignées mâles[5]. L'INRA anime aussi un réseau national de surveillance des pollinisateurs sauvages et plus particulièrement des abeilles sauvages (environ 1000 espèces en France)[6].
 </t>
         </is>
       </c>
@@ -548,17 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Origine</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante a été domestiquée par les Amérindiens et les Mexicains[7] qui l'utilisaient pour ses propriétés alimentaires, médicinales et tinctoriales. Les graines contenaient alors environ 20 % d'huile. Il faisait partie du mythe de la création chez les Onondagas tandis qu'il était associé au dieu de la guerre Huitzilopochtli chez les Aztèques[8].
-L'hypothèse qu'elle provenait initialement de l'Ouest de l'Amérique du Nord (ouest du Canada et des États-Unis, centre et sud des États-Unis, nord du Mexique), semble être remise en question par la découverte en 2010 d'empreintes fossilisées de fleurs semblables à des astéracées, plus anciennes car datées d'environ 50 millions d'années, au nord-ouest de la Patagonie[9],[10].
-Elle a été introduite en Europe au XVIe siècle par les Espagnols. On la trouvait cultivée au début du XVIIIe siècle en France dans le Languedoc, en particulier à Massillargues et Lunel aux environs de Nîmes. La sommité était recueillie pour faire de la « teinture en drapeau », chiffons imprégnés de teinture qui sont ensuite exportés à Lyon, en Allemagne, en Hollande et en Angleterre pour donner une jolie teinte au vin[1].
-Sa culture comme plante oléagineuse se développa au XIXe siècle en Russie où, grâce à la sélection, la teneur des graines en huile atteint alors 40 % d'huile. C'est en interdisant la consommation d'aliments riches en huile pendant le carême et la période précédant Noël, que l'Église orthodoxe a, par réaction, développé la culture du tournesol qui était trop méconnue pour être sur la liste[8].
-Vers les années 1950, la recherche se porte sur des hybrides F1. En 1969, le Français Patrice Leclercq (INRA de Clermont-Ferrand) découvre un caractère de stérilité qui permet de faciliter la production de semences hybrides F1. Ce caractère génétique permet le doublement de la production mondiale, désormais utilisé dans le monde entier[8].
-La culture du tournesol est aujourd'hui largement répandue sur tous les continents.
+          <t>Pollinisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pollinisation est aujourd'hui essentiellement assurée par différentes espèces d'abeilles, souvent par des abeilles domestiques via des ruches louées à des apiculteurs et installées dans les champs. Cette précaution est devenue nécessaire dans certains cas pour compenser la très forte régression des pollinisateurs dans la nature. L'INRA d'Avignon a montré en mettant dans des sachets fermés que respectivement l'autopollinisation ou la pollinisation par le vent donnaient un rendement grainier presque nul quand il est comparé à celui obtenu en présence d'abeilles. Un système de vidéosurveillance a plus récemment permis de quantifier la fréquence des visites d'abeilles (domestiques ou sauvages) ou d'autre espèces telles que papillons, bourdons, etc. ) et des chercheurs essayent de comprendre pourquoi certaines variétés femelles sont moins visitées que les lignées mâles. L'INRA anime aussi un réseau national de surveillance des pollinisateurs sauvages et plus particulièrement des abeilles sauvages (environ 1000 espèces en France).
 </t>
         </is>
       </c>
@@ -584,106 +597,404 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a été domestiquée par les Amérindiens et les Mexicains qui l'utilisaient pour ses propriétés alimentaires, médicinales et tinctoriales. Les graines contenaient alors environ 20 % d'huile. Il faisait partie du mythe de la création chez les Onondagas tandis qu'il était associé au dieu de la guerre Huitzilopochtli chez les Aztèques.
+L'hypothèse qu'elle provenait initialement de l'Ouest de l'Amérique du Nord (ouest du Canada et des États-Unis, centre et sud des États-Unis, nord du Mexique), semble être remise en question par la découverte en 2010 d'empreintes fossilisées de fleurs semblables à des astéracées, plus anciennes car datées d'environ 50 millions d'années, au nord-ouest de la Patagonie,.
+Elle a été introduite en Europe au XVIe siècle par les Espagnols. On la trouvait cultivée au début du XVIIIe siècle en France dans le Languedoc, en particulier à Massillargues et Lunel aux environs de Nîmes. La sommité était recueillie pour faire de la « teinture en drapeau », chiffons imprégnés de teinture qui sont ensuite exportés à Lyon, en Allemagne, en Hollande et en Angleterre pour donner une jolie teinte au vin.
+Sa culture comme plante oléagineuse se développa au XIXe siècle en Russie où, grâce à la sélection, la teneur des graines en huile atteint alors 40 % d'huile. C'est en interdisant la consommation d'aliments riches en huile pendant le carême et la période précédant Noël, que l'Église orthodoxe a, par réaction, développé la culture du tournesol qui était trop méconnue pour être sur la liste.
+Vers les années 1950, la recherche se porte sur des hybrides F1. En 1969, le Français Patrice Leclercq (INRA de Clermont-Ferrand) découvre un caractère de stérilité qui permet de faciliter la production de semences hybrides F1. Ce caractère génétique permet le doublement de la production mondiale, désormais utilisé dans le monde entier.
+La culture du tournesol est aujourd'hui largement répandue sur tous les continents.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentation humaine
-Huile de tournesol
-L'huile est extraite des graines, dont la teneur dans les variétés améliorées varie de 40 à 50 %. L'huile de tournesol est appréciée pour son équilibre en acides gras : elle contient 12 % seulement d'acides gras saturés et beaucoup d'acides gras mono ou poly-insaturés, acide oléique, acide palmitique et surtout acide linoléique, qui est un acide gras essentiel. D'après les nutritionnistes, cette huile a d'excellentes qualités diététiques, par exemple pour combattre le diabète. C'est également une bonne source de vitamine E. L'huile de tournesol entre dans la composition des margarines. Elle sert aussi à la fabrication de savons et de cierges.
-Le tournesol oléique aussi appelé tournesol haut oléique est un tournesol sélectionné dont la composition des acides gras a été modifiée pour obtenir un taux d'acide oléique proche de 82 %[11], similaire donc à celui de l'huile d'olive, mais sans le goût de cette dernière. Il est produit sous contrat en France. L'huile de tournesol oléique entre souvent dans la composition des mélanges d'huile. Depuis quelques années la culture du tournesol oléique a dépassé la culture du tournesol classique en France[12].
-Graines de tournesol
-Les graines de tournesol décortiquées et crues sont vendues (notamment en vrac ou dans les magasins bio) et se consomment comme en-cas, en accompagnement de salade, etc.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation humaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Huile de tournesol</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile est extraite des graines, dont la teneur dans les variétés améliorées varie de 40 à 50 %. L'huile de tournesol est appréciée pour son équilibre en acides gras : elle contient 12 % seulement d'acides gras saturés et beaucoup d'acides gras mono ou poly-insaturés, acide oléique, acide palmitique et surtout acide linoléique, qui est un acide gras essentiel. D'après les nutritionnistes, cette huile a d'excellentes qualités diététiques, par exemple pour combattre le diabète. C'est également une bonne source de vitamine E. L'huile de tournesol entre dans la composition des margarines. Elle sert aussi à la fabrication de savons et de cierges.
+Le tournesol oléique aussi appelé tournesol haut oléique est un tournesol sélectionné dont la composition des acides gras a été modifiée pour obtenir un taux d'acide oléique proche de 82 %, similaire donc à celui de l'huile d'olive, mais sans le goût de cette dernière. Il est produit sous contrat en France. L'huile de tournesol oléique entre souvent dans la composition des mélanges d'huile. Depuis quelques années la culture du tournesol oléique a dépassé la culture du tournesol classique en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation humaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Graines de tournesol</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines de tournesol décortiquées et crues sont vendues (notamment en vrac ou dans les magasins bio) et se consomment comme en-cas, en accompagnement de salade, etc.
 On consomme aussi les graines torréfiées, notamment autour du bassin méditerranéen où on les connaît sous le nom de pipas ou pipasol en Espagne.
 Une autre manière de se nourrir des graines de tournesol réside dans la germination et les jeunes pousses tendres. En effet, les nutriments contenus dans les graines sont décuplés lorsque ces dernières sont devenues des pousses. Ces pousses peuvent être un peu longue à la mastication mais sont très bonnes.
-Alimentation animale
-La plante entière récoltée avant maturité est utilisée comme fourrage. De plus, les résidus de trituration, appelés tourteaux, sont riches en protéines, dont un acide aminé très recherché dans l'alimentation du bétail, la méthionine. Les graines entières sont appréciées pour nourrir les perroquets et autres oiseaux de volière.
-Le tournesol est aussi une excellente plante mellifère qui a l'avantage de fleurir tard en saison (août) quand il n'y a plus beaucoup d'autres ressources disponibles pour les abeilles. De plus, le pollen de tournesol est excellent pour les abeilles et les protège de la nosémose[13].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation animale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante entière récoltée avant maturité est utilisée comme fourrage. De plus, les résidus de trituration, appelés tourteaux, sont riches en protéines, dont un acide aminé très recherché dans l'alimentation du bétail, la méthionine. Les graines entières sont appréciées pour nourrir les perroquets et autres oiseaux de volière.
+Le tournesol est aussi une excellente plante mellifère qui a l'avantage de fleurir tard en saison (août) quand il n'y a plus beaucoup d'autres ressources disponibles pour les abeilles. De plus, le pollen de tournesol est excellent pour les abeilles et les protège de la nosémose.
 Elle est également cultivée comme plante ornementale pour ses capitules spectaculaires. Il en existe plusieurs cultivars, notamment 'Nanus flore pleno', de 60 à 80 cm de haut seulement et à fleurs doubles jaune orangé.
-Agrocarburants
-L'huile de tournesol, comme l'huile de colza, peut être utilisée comme agrocarburant pour les moteurs diesel, soit directement en tant qu'huile végétale pure (HVP), ou après estérification en ester méthylique (diester). Actuellement la deuxième voie est de loin prédominante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Agrocarburants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'huile de tournesol, comme l'huile de colza, peut être utilisée comme agrocarburant pour les moteurs diesel, soit directement en tant qu'huile végétale pure (HVP), ou après estérification en ester méthylique (diester). Actuellement la deuxième voie est de loin prédominante.
 Au-delà de 30 % d'HVP (huile végétale pure), il convient toutefois de faire certains réglages (pression d'injection) et éventuelles modifications (préchauffage). Les expérimentations à 100 % d'HVP sur les poids lourds fonctionnent généralement avec un système de démarrage au gazole.
 L'huile pure, contrairement au diester, ne nécessite aucun procédé industriel de fabrication. Une presse suivie d'un filtre performant suffit.
 Le tournesol est la plante qui offre le meilleur rendement (six fois supérieur au gazole). C'est aussi la plus écologique. Pas de rejet de soufre, 25 % d'émission de dérivés azotés en moins, trois fois moins de CO2 rejeté à la combustion…
 Politiquement, l'application de la TIPP aux HVP, votée fin 2006 par le parlement, rend l'HVP de tournesol plus chère que le gazole, plombant ainsi les expérimentations en cours comme celle de Villeneuve-sur-Lot (Lot-et-Garonne).
 Toutefois, les agriculteurs peuvent produire de l'HVP et l'utiliser à leurs fins personnelles sans avoir à payer de taxe, ce qui laisse craindre le développement de réseaux pirates de distribution.
-[réf. nécessaire]
-Isolant thermique
-Les tiges de tournesol ont les qualités pour faire de bons isolants pour le bâtiment. Leurs fibres ont une bonne résistance mécanique et leur moelle poreuse une bonne résistance thermique[14]. C'est ce que les scientifiques ont démontré dans le cadre du projet Demether[15] piloté par Irstea. « Les prototypes de panneaux réalisés ont une conductivité thermique de 0,06 watts par mètre-kelvin (à comparer à 0,04 pour la laine de verre ou 0,11 pour le béton de chanvre), une résistance mécanique intéressante de 2,6 MPa et sont peu coûteux à produire ». La colle utilisée pour réaliser ces panneaux est à base de chitosane, un produit biosourcé issu de la carapace de crustacés ou de champignons[16] (brevet Irstea).
-Hyperaccumulateur
-Le tournesol est une plante dépolluante, c'est, notamment, un hyperaccumulateur des radionucléides de strontium, d'uranium et de nickel[17].
-Chimie
-L'azolitmine, tirée du tournesol, peut servir à déterminer si une solution est acide ou basique [18]. Le papier de tournesol devient rouge au contact d'un acide et bleu au contact d'une base. Il est cependant généralement fabriqué à partir de poudres de lichen et non de tournesol, et reste moins précis que le papier pH.
-Plante auxiliaire
-Elle peut également servir de couvert végétaux grâce à la forte concurrence qu’elle fait aux adventices. Elle a un effet bénéfique sur le sol grâce à son effet structurant sur le sol notamment dans les argiles, elle permet également de remobiliser le phosphore en sols calcaire.
-C’est également un excellent tuteur, qui reste debout bien que détruit après l’hiver ce qui permet un réchauffement du sol. Elle attire également les auxiliaires et les pollinisateurs[19].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Helianthus_annuus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Isolant thermique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges de tournesol ont les qualités pour faire de bons isolants pour le bâtiment. Leurs fibres ont une bonne résistance mécanique et leur moelle poreuse une bonne résistance thermique. C'est ce que les scientifiques ont démontré dans le cadre du projet Demether piloté par Irstea. « Les prototypes de panneaux réalisés ont une conductivité thermique de 0,06 watts par mètre-kelvin (à comparer à 0,04 pour la laine de verre ou 0,11 pour le béton de chanvre), une résistance mécanique intéressante de 2,6 MPa et sont peu coûteux à produire ». La colle utilisée pour réaliser ces panneaux est à base de chitosane, un produit biosourcé issu de la carapace de crustacés ou de champignons (brevet Irstea).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hyperaccumulateur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournesol est une plante dépolluante, c'est, notamment, un hyperaccumulateur des radionucléides de strontium, d'uranium et de nickel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'azolitmine, tirée du tournesol, peut servir à déterminer si une solution est acide ou basique . Le papier de tournesol devient rouge au contact d'un acide et bleu au contact d'une base. Il est cependant généralement fabriqué à partir de poudres de lichen et non de tournesol, et reste moins précis que le papier pH.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plante auxiliaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle peut également servir de couvert végétaux grâce à la forte concurrence qu’elle fait aux adventices. Elle a un effet bénéfique sur le sol grâce à son effet structurant sur le sol notamment dans les argiles, elle permet également de remobiliser le phosphore en sols calcaire.
+C’est également un excellent tuteur, qui reste debout bien que détruit après l’hiver ce qui permet un réchauffement du sol. Elle attire également les auxiliaires et les pollinisateurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement de la culture du tournesol en France, comme celle du colza, à partir des années 1970 est dû au besoin d'indépendance de la communauté européenne face au monopole des États-Unis en matière d’oléagineux. La mise au point de nouvelles variétés (par croisement et sélection), notamment d'hybrides résistants au mildiou, a contribué au développement de la culture du tournesol au cours des vingt dernières années, notamment en France. Aujourd'hui, il est cultivé dans le Sud-Ouest, dans le Centre et en Côte-d'Or.
-Le tournesol affectionne des climats chauds et secs. C'est une culture de printemps, il se sème dès la mi-mars[20] et sa récolte débute mi-août. L’écartement optimum se situe à 45 cm inter-rangs et 30 cm inter-plants avec un objectif de 60 à 80 000 pieds/ ha et permet un gain de rendement de près de 6 q/ha par rapport à un écartement de 80 cm.
+Le tournesol affectionne des climats chauds et secs. C'est une culture de printemps, il se sème dès la mi-mars et sa récolte débute mi-août. L’écartement optimum se situe à 45 cm inter-rangs et 30 cm inter-plants avec un objectif de 60 à 80 000 pieds/ ha et permet un gain de rendement de près de 6 q/ha par rapport à un écartement de 80 cm.
 Peu gourmand en eau, sa racine pivot lui permet de capter l'eau en profondeur. C'est une plante plus sensible à la qualité du sol (profondeur, structure) qu'à l'ajout d'engrais.
 Ses besoins en azote sont faibles (80 unités/ha contre 180 pour du maïs), mais il faut prévoir une bonne fumure de fond (80 unités de phosphore et de potassium) et du bore.
 Elle est peu sensible aux insectes (sauf en début de cycle) et les variétés commerciales ont des résistances importantes aux attaques fongiques, de fait elle n'a quasiment pas besoin d'être traitée.
-Cette espèce est sensible à certains variants du mildiou, favorisé par les monocultures intensives. La lutte contre cette maladie est réglementée[21].
-Certaines variétés de tournesol géant, peuvent atteindre plusieurs mètres de hauteur. Il existe même un record du monde détenu, depuis 2017, par l'Allemand Hans-Peter Shiffer. Sa plante est montée à 9,17 mètres de hauteur[22].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Helianthus_annuus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Cette espèce est sensible à certains variants du mildiou, favorisé par les monocultures intensives. La lutte contre cette maladie est réglementée.
+Certaines variétés de tournesol géant, peuvent atteindre plusieurs mètres de hauteur. Il existe même un record du monde détenu, depuis 2017, par l'Allemand Hans-Peter Shiffer. Sa plante est montée à 9,17 mètres de hauteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Prédateurs des cultures de tournesol</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les oiseaux très friands de ses graines, notamment le pigeon, le corbeau, le moineau domestique, le verdier et la linotte, ainsi que la mésange, les autres ravageurs notables sont la limace grise, la tipule des prairies (Tipula paludosa), la mouche du tournesol (Strauzia longipennis), le thrips du tabac (Thrips tabaci) qui attaquent les jeunes plants, et le puceron vert du prunier (Brachycaudus helichrysi) qui attaque les feuilles.
 Les principales maladies rencontrées sont la pourriture blanche (Sclérotiniose), le mildiou du tournesol (Plasmopara helianthi), apparu en 1978, l'alternariose (Alternaria helianthi), la verticilliose (Verticillium dahliae), ainsi que le phomopsis, (Phomopsis helianthi), champignon apparu en France en 1984.
@@ -692,31 +1003,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Helianthus_annuus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helianthus_annuus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Importance économique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">La récolte mondiale de graines de tournesol s'est élevée en 2003 à 26,1 millions de tonnes contre 32,4 millions en 2009. (Source FAO)
 </t>
